--- a/FALL 19/MAT 101/results.xlsx
+++ b/FALL 19/MAT 101/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Problem 5</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +176,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +397,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -402,7 +411,7 @@
     <col min="7" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +430,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>183011218</v>
       </c>
@@ -442,8 +457,16 @@
         <f t="shared" ref="F2:F17" si="0">C2+D2+E2</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>(F2/20)*100</f>
+        <v>45</v>
+      </c>
+      <c r="H2" s="9" t="str">
+        <f>IF(G2&gt;94,"A+",IF(G2&gt;84,"A",IF(G2&gt;79,"A-",IF(G2&gt;74,"B+",IF(G2&gt;69,"B",IF(G2&gt;64,"B-",IF(G2&gt;59,"C+",IF(G2&gt;54,"C",IF(G2&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>173014033</v>
       </c>
@@ -457,8 +480,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="1">(F3/20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="str">
+        <f t="shared" ref="H3:H17" si="2">IF(G3&gt;94,"A+",IF(G3&gt;84,"A",IF(G3&gt;79,"A-",IF(G3&gt;74,"B+",IF(G3&gt;69,"B",IF(G3&gt;64,"B-",IF(G3&gt;59,"C+",IF(G3&gt;54,"C",IF(G3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>181014001</v>
       </c>
@@ -472,8 +503,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>181014051</v>
       </c>
@@ -487,8 +526,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>181014126</v>
       </c>
@@ -508,8 +555,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>182014056</v>
       </c>
@@ -523,8 +578,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>183014070</v>
       </c>
@@ -538,8 +601,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>191014032</v>
       </c>
@@ -553,8 +624,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>193014009</v>
       </c>
@@ -574,8 +653,16 @@
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>193014067</v>
       </c>
@@ -589,8 +676,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>193014071</v>
       </c>
@@ -610,8 +705,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>193014072</v>
       </c>
@@ -625,8 +728,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>193014073</v>
       </c>
@@ -646,8 +757,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>183016002</v>
       </c>
@@ -661,8 +780,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>192016001</v>
       </c>
@@ -678,8 +805,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>193016008</v>
       </c>
@@ -699,8 +834,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
@@ -708,7 +851,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -716,7 +859,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -724,7 +867,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -732,7 +875,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -740,7 +883,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -748,7 +891,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -756,7 +899,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
@@ -764,7 +907,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
@@ -772,7 +915,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -780,7 +923,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -788,7 +931,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -796,7 +939,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
@@ -804,7 +947,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -812,7 +955,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -956,20 +1099,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="8" width="14.7109375" customWidth="1"/>
+    <col min="3" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,8 +1138,14 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>183011218</v>
       </c>
@@ -1017,8 +1167,16 @@
         <f>C2+D2+E2+F2+G2</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>(H2/20)*100</f>
+        <v>35</v>
+      </c>
+      <c r="J2" s="9" t="str">
+        <f>IF(I2&gt;94,"A+",IF(I2&gt;84,"A",IF(I2&gt;79,"A-",IF(I2&gt;74,"B+",IF(I2&gt;69,"B",IF(I2&gt;64,"B-",IF(I2&gt;59,"C+",IF(I2&gt;54,"C",IF(I2&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>173014033</v>
       </c>
@@ -1034,8 +1192,16 @@
         <f t="shared" ref="H3:H17" si="0">C3+D3+E3+F3+G3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="1">(H3/20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="str">
+        <f t="shared" ref="J3:J17" si="2">IF(I3&gt;94,"A+",IF(I3&gt;84,"A",IF(I3&gt;79,"A-",IF(I3&gt;74,"B+",IF(I3&gt;69,"B",IF(I3&gt;64,"B-",IF(I3&gt;59,"C+",IF(I3&gt;54,"C",IF(I3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>181014001</v>
       </c>
@@ -1051,8 +1217,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>181014051</v>
       </c>
@@ -1068,8 +1242,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>181014126</v>
       </c>
@@ -1089,8 +1271,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J6" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>182014056</v>
       </c>
@@ -1110,8 +1300,16 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>183014070</v>
       </c>
@@ -1133,8 +1331,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>191014032</v>
       </c>
@@ -1150,8 +1356,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>193014009</v>
       </c>
@@ -1173,8 +1387,16 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>193014067</v>
       </c>
@@ -1194,8 +1416,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>193014071</v>
       </c>
@@ -1221,8 +1451,16 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>193014072</v>
       </c>
@@ -1238,8 +1476,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>193014073</v>
       </c>
@@ -1259,8 +1505,16 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="J14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>183016002</v>
       </c>
@@ -1276,8 +1530,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>192016001</v>
       </c>
@@ -1297,8 +1559,16 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="J16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>193016008</v>
       </c>
@@ -1320,6 +1590,14 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="J17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
